--- a/GameSource/GameAgenda.xlsx
+++ b/GameSource/GameAgenda.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>LARGE</t>
   </si>
@@ -35,9 +35,6 @@
     <t>SMALL</t>
   </si>
   <si>
-    <t>Document StateEngine</t>
-  </si>
-  <si>
     <t>Document TileMap</t>
   </si>
   <si>
@@ -45,6 +42,12 @@
   </si>
   <si>
     <t>Determine Texture Sizes</t>
+  </si>
+  <si>
+    <t>Document SDLUtilityTool</t>
+  </si>
+  <si>
+    <t>Document the TileMap, b2world, axis orientations</t>
   </si>
 </sst>
 </file>
@@ -368,7 +371,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C2" sqref="C2:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -391,7 +394,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
@@ -399,13 +405,14 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
         <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/GameSource/GameAgenda.xlsx
+++ b/GameSource/GameAgenda.xlsx
@@ -35,19 +35,19 @@
     <t>SMALL</t>
   </si>
   <si>
-    <t>Document TileMap</t>
-  </si>
-  <si>
     <t>Integrate Flyweight model for entities</t>
   </si>
   <si>
-    <t>Determine Texture Sizes</t>
-  </si>
-  <si>
     <t>Document SDLUtilityTool</t>
   </si>
   <si>
     <t>Document the TileMap, b2world, axis orientations</t>
+  </si>
+  <si>
+    <t>Figure out level file format</t>
+  </si>
+  <si>
+    <t>*Determine Texture Sizes</t>
   </si>
 </sst>
 </file>
@@ -368,10 +368,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C3"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -394,20 +394,22 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
         <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>6</v>
       </c>
     </row>

--- a/GameSource/GameAgenda.xlsx
+++ b/GameSource/GameAgenda.xlsx
@@ -54,10 +54,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -83,11 +90,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -371,7 +379,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -393,7 +401,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">

--- a/GameSource/GameAgenda.xlsx
+++ b/GameSource/GameAgenda.xlsx
@@ -35,12 +35,6 @@
     <t>SMALL</t>
   </si>
   <si>
-    <t>Integrate Flyweight model for entities</t>
-  </si>
-  <si>
-    <t>Document SDLUtilityTool</t>
-  </si>
-  <si>
     <t>Document the TileMap, b2world, axis orientations</t>
   </si>
   <si>
@@ -48,6 +42,12 @@
   </si>
   <si>
     <t>*Determine Texture Sizes</t>
+  </si>
+  <si>
+    <t>Research box 2d shapes</t>
+  </si>
+  <si>
+    <t>Figure out format for entities that have only one texture</t>
   </si>
 </sst>
 </file>
@@ -379,7 +379,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -401,24 +401,25 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="2"/>
+      <c r="B2" t="s">
         <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
